--- a/natmiOut/OldD2/LR-pairs_lrc2p/Adam23-Itga5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Adam23-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,10 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>18.7790377793868</v>
+        <v>0.056827</v>
       </c>
       <c r="H2">
-        <v>18.7790377793868</v>
+        <v>0.113654</v>
       </c>
       <c r="I2">
-        <v>0.8157724497605758</v>
+        <v>0.002198372771388981</v>
       </c>
       <c r="J2">
-        <v>0.8157724497605758</v>
+        <v>0.001552001951971484</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N2">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O2">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P2">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q2">
-        <v>882.5579398025201</v>
+        <v>2.697244797434</v>
       </c>
       <c r="R2">
-        <v>882.5579398025201</v>
+        <v>10.788979189736</v>
       </c>
       <c r="S2">
-        <v>0.1877986792682719</v>
+        <v>0.0004929809013881298</v>
       </c>
       <c r="T2">
-        <v>0.1877986792682719</v>
+        <v>0.0002556068969640058</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>18.7790377793868</v>
+        <v>0.056827</v>
       </c>
       <c r="H3">
-        <v>18.7790377793868</v>
+        <v>0.113654</v>
       </c>
       <c r="I3">
-        <v>0.8157724497605758</v>
+        <v>0.002198372771388981</v>
       </c>
       <c r="J3">
-        <v>0.8157724497605758</v>
+        <v>0.001552001951971484</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N3">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O3">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P3">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q3">
-        <v>1226.066362664825</v>
+        <v>3.976600746908667</v>
       </c>
       <c r="R3">
-        <v>1226.066362664825</v>
+        <v>23.859604481452</v>
       </c>
       <c r="S3">
-        <v>0.2608935155636687</v>
+        <v>0.0007268113826882687</v>
       </c>
       <c r="T3">
-        <v>0.2608935155636687</v>
+        <v>0.0005652693695149915</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>18.7790377793868</v>
+        <v>0.056827</v>
       </c>
       <c r="H4">
-        <v>18.7790377793868</v>
+        <v>0.113654</v>
       </c>
       <c r="I4">
-        <v>0.8157724497605758</v>
+        <v>0.002198372771388981</v>
       </c>
       <c r="J4">
-        <v>0.8157724497605758</v>
+        <v>0.001552001951971484</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N4">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O4">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P4">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q4">
-        <v>596.5828880792662</v>
+        <v>1.880441780337667</v>
       </c>
       <c r="R4">
-        <v>596.5828880792662</v>
+        <v>11.282650682026</v>
       </c>
       <c r="S4">
-        <v>0.1269463152531457</v>
+        <v>0.0003436921575530248</v>
       </c>
       <c r="T4">
-        <v>0.1269463152531457</v>
+        <v>0.0002673027058116012</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>18.7790377793868</v>
+        <v>0.056827</v>
       </c>
       <c r="H5">
-        <v>18.7790377793868</v>
+        <v>0.113654</v>
       </c>
       <c r="I5">
-        <v>0.8157724497605758</v>
+        <v>0.002198372771388981</v>
       </c>
       <c r="J5">
-        <v>0.8157724497605758</v>
+        <v>0.001552001951971484</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N5">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O5">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P5">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q5">
-        <v>457.0467707697925</v>
+        <v>1.383877036054333</v>
       </c>
       <c r="R5">
-        <v>457.0467707697925</v>
+        <v>8.303262216325999</v>
       </c>
       <c r="S5">
-        <v>0.09725455524608556</v>
+        <v>0.0002529340122533288</v>
       </c>
       <c r="T5">
-        <v>0.09725455524608556</v>
+        <v>0.0001967165801758762</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>18.7790377793868</v>
+        <v>0.056827</v>
       </c>
       <c r="H6">
-        <v>18.7790377793868</v>
+        <v>0.113654</v>
       </c>
       <c r="I6">
-        <v>0.8157724497605758</v>
+        <v>0.002198372771388981</v>
       </c>
       <c r="J6">
-        <v>0.8157724497605758</v>
+        <v>0.001552001951971484</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N6">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O6">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P6">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q6">
-        <v>463.5363558392302</v>
+        <v>1.457611546056334</v>
       </c>
       <c r="R6">
-        <v>463.5363558392302</v>
+        <v>8.745669276338001</v>
       </c>
       <c r="S6">
-        <v>0.09863546798855345</v>
+        <v>0.00026641061817311</v>
       </c>
       <c r="T6">
-        <v>0.09863546798855345</v>
+        <v>0.0002071978586931447</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>18.7790377793868</v>
+        <v>0.056827</v>
       </c>
       <c r="H7">
-        <v>18.7790377793868</v>
+        <v>0.113654</v>
       </c>
       <c r="I7">
-        <v>0.8157724497605758</v>
+        <v>0.002198372771388981</v>
       </c>
       <c r="J7">
-        <v>0.8157724497605758</v>
+        <v>0.001552001951971484</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N7">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O7">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P7">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q7">
-        <v>207.9238251034331</v>
+        <v>0.6321738652045</v>
       </c>
       <c r="R7">
-        <v>207.9238251034331</v>
+        <v>2.528695460818</v>
       </c>
       <c r="S7">
-        <v>0.04424391644085053</v>
+        <v>0.0001155436993331186</v>
       </c>
       <c r="T7">
-        <v>0.04424391644085053</v>
+        <v>5.990854081186448E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.168125640760176</v>
+        <v>21.108446</v>
       </c>
       <c r="H8">
-        <v>0.168125640760176</v>
+        <v>63.325338</v>
       </c>
       <c r="I8">
-        <v>0.007303476751138085</v>
+        <v>0.8165877651949714</v>
       </c>
       <c r="J8">
-        <v>0.007303476751138085</v>
+        <v>0.8647390165348687</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N8">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O8">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P8">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q8">
-        <v>7.901396273889634</v>
+        <v>1001.894278343332</v>
       </c>
       <c r="R8">
-        <v>7.901396273889634</v>
+        <v>6011.365670059992</v>
       </c>
       <c r="S8">
-        <v>0.001681330729338571</v>
+        <v>0.1831182490010499</v>
       </c>
       <c r="T8">
-        <v>0.001681330729338571</v>
+        <v>0.1424181563814458</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.168125640760176</v>
+        <v>21.108446</v>
       </c>
       <c r="H9">
-        <v>0.168125640760176</v>
+        <v>63.325338</v>
       </c>
       <c r="I9">
-        <v>0.007303476751138085</v>
+        <v>0.8165877651949714</v>
       </c>
       <c r="J9">
-        <v>0.007303476751138085</v>
+        <v>0.8647390165348687</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N9">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O9">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P9">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q9">
-        <v>10.97677076212011</v>
+        <v>1477.112325649449</v>
       </c>
       <c r="R9">
-        <v>10.97677076212011</v>
+        <v>13294.01093084504</v>
       </c>
       <c r="S9">
-        <v>0.00233573679277986</v>
+        <v>0.2699748152051077</v>
       </c>
       <c r="T9">
-        <v>0.00233573679277986</v>
+        <v>0.314954809206748</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.168125640760176</v>
+        <v>21.108446</v>
       </c>
       <c r="H10">
-        <v>0.168125640760176</v>
+        <v>63.325338</v>
       </c>
       <c r="I10">
-        <v>0.007303476751138085</v>
+        <v>0.8165877651949714</v>
       </c>
       <c r="J10">
-        <v>0.007303476751138085</v>
+        <v>0.8647390165348687</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N10">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O10">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P10">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q10">
-        <v>5.34110860754433</v>
+        <v>698.4919805092914</v>
       </c>
       <c r="R10">
-        <v>5.34110860754433</v>
+        <v>6286.427824583622</v>
       </c>
       <c r="S10">
-        <v>0.001136529509382314</v>
+        <v>0.1276647957543336</v>
       </c>
       <c r="T10">
-        <v>0.001136529509382314</v>
+        <v>0.1489347862269186</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.168125640760176</v>
+        <v>21.108446</v>
       </c>
       <c r="H11">
-        <v>0.168125640760176</v>
+        <v>63.325338</v>
       </c>
       <c r="I11">
-        <v>0.007303476751138085</v>
+        <v>0.8165877651949714</v>
       </c>
       <c r="J11">
-        <v>0.007303476751138085</v>
+        <v>0.8647390165348687</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N11">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O11">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P11">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q11">
-        <v>4.091864668241259</v>
+        <v>514.0425094795247</v>
       </c>
       <c r="R11">
-        <v>4.091864668241259</v>
+        <v>4626.382585315721</v>
       </c>
       <c r="S11">
-        <v>0.0008707040589450256</v>
+        <v>0.09395259188788303</v>
       </c>
       <c r="T11">
-        <v>0.0008707040589450256</v>
+        <v>0.1096058557537919</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.168125640760176</v>
+        <v>21.108446</v>
       </c>
       <c r="H12">
-        <v>0.168125640760176</v>
+        <v>63.325338</v>
       </c>
       <c r="I12">
-        <v>0.007303476751138085</v>
+        <v>0.8165877651949714</v>
       </c>
       <c r="J12">
-        <v>0.007303476751138085</v>
+        <v>0.8647390165348687</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N12">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O12">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P12">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q12">
-        <v>4.149964857446082</v>
+        <v>541.4312669841207</v>
       </c>
       <c r="R12">
-        <v>4.149964857446082</v>
+        <v>4872.881402857087</v>
       </c>
       <c r="S12">
-        <v>0.0008830671439118257</v>
+        <v>0.09895849063884617</v>
       </c>
       <c r="T12">
-        <v>0.0008830671439118257</v>
+        <v>0.1154457778399319</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.168125640760176</v>
+        <v>21.108446</v>
       </c>
       <c r="H13">
-        <v>0.168125640760176</v>
+        <v>63.325338</v>
       </c>
       <c r="I13">
-        <v>0.007303476751138085</v>
+        <v>0.8165877651949714</v>
       </c>
       <c r="J13">
-        <v>0.007303476751138085</v>
+        <v>0.8647390165348687</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N13">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O13">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P13">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q13">
-        <v>1.86150785442229</v>
+        <v>234.821614659941</v>
       </c>
       <c r="R13">
-        <v>1.86150785442229</v>
+        <v>1408.929687959646</v>
       </c>
       <c r="S13">
-        <v>0.0003961085167804894</v>
+        <v>0.04291882270775107</v>
       </c>
       <c r="T13">
-        <v>0.0003961085167804894</v>
+        <v>0.03337963112603263</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>4.07278262595734</v>
+        <v>0.04350366666666667</v>
       </c>
       <c r="H14">
-        <v>4.07278262595734</v>
+        <v>0.130511</v>
       </c>
       <c r="I14">
-        <v>0.176924073488286</v>
+        <v>0.001682954867502814</v>
       </c>
       <c r="J14">
-        <v>0.176924073488286</v>
+        <v>0.001782192679129202</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N14">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O14">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P14">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q14">
-        <v>191.4084569111389</v>
+        <v>2.064864212187334</v>
       </c>
       <c r="R14">
-        <v>191.4084569111389</v>
+        <v>12.389185273124</v>
       </c>
       <c r="S14">
-        <v>0.04072962667667247</v>
+        <v>0.0003773994194136955</v>
       </c>
       <c r="T14">
-        <v>0.04072962667667247</v>
+        <v>0.0002935181492043339</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>4.07278262595734</v>
+        <v>0.04350366666666667</v>
       </c>
       <c r="H15">
-        <v>4.07278262595734</v>
+        <v>0.130511</v>
       </c>
       <c r="I15">
-        <v>0.176924073488286</v>
+        <v>0.001682954867502814</v>
       </c>
       <c r="J15">
-        <v>0.176924073488286</v>
+        <v>0.001782192679129202</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N15">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O15">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P15">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q15">
-        <v>265.9082876766577</v>
+        <v>3.044269684479778</v>
       </c>
       <c r="R15">
-        <v>265.9082876766577</v>
+        <v>27.398427160318</v>
       </c>
       <c r="S15">
-        <v>0.05658237604585814</v>
+        <v>0.0005564073437276215</v>
       </c>
       <c r="T15">
-        <v>0.05658237604585814</v>
+        <v>0.0006491093202594811</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>4.07278262595734</v>
+        <v>0.04350366666666667</v>
       </c>
       <c r="H16">
-        <v>4.07278262595734</v>
+        <v>0.130511</v>
       </c>
       <c r="I16">
-        <v>0.176924073488286</v>
+        <v>0.001682954867502814</v>
       </c>
       <c r="J16">
-        <v>0.176924073488286</v>
+        <v>0.001782192679129202</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N16">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O16">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P16">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q16">
-        <v>129.3864174542402</v>
+        <v>1.439564157845445</v>
       </c>
       <c r="R16">
-        <v>129.3864174542402</v>
+        <v>12.956077420609</v>
       </c>
       <c r="S16">
-        <v>0.02753201485966644</v>
+        <v>0.0002631120604313843</v>
       </c>
       <c r="T16">
-        <v>0.02753201485966644</v>
+        <v>0.00030694866382334</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>4.07278262595734</v>
+        <v>0.04350366666666667</v>
       </c>
       <c r="H17">
-        <v>4.07278262595734</v>
+        <v>0.130511</v>
       </c>
       <c r="I17">
-        <v>0.176924073488286</v>
+        <v>0.001682954867502814</v>
       </c>
       <c r="J17">
-        <v>0.176924073488286</v>
+        <v>0.001782192679129202</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N17">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O17">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P17">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q17">
-        <v>99.12393643961776</v>
+        <v>1.059421142839889</v>
       </c>
       <c r="R17">
-        <v>99.12393643961776</v>
+        <v>9.534790285559</v>
       </c>
       <c r="S17">
-        <v>0.0210924898045761</v>
+        <v>0.0001936325506842064</v>
       </c>
       <c r="T17">
-        <v>0.0210924898045761</v>
+        <v>0.0002258933041981258</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>4.07278262595734</v>
+        <v>0.04350366666666667</v>
       </c>
       <c r="H18">
-        <v>4.07278262595734</v>
+        <v>0.130511</v>
       </c>
       <c r="I18">
-        <v>0.176924073488286</v>
+        <v>0.001682954867502814</v>
       </c>
       <c r="J18">
-        <v>0.176924073488286</v>
+        <v>0.001782192679129202</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N18">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O18">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P18">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q18">
-        <v>100.5313924355522</v>
+        <v>1.115868281435223</v>
       </c>
       <c r="R18">
-        <v>100.5313924355522</v>
+        <v>10.042814532917</v>
       </c>
       <c r="S18">
-        <v>0.02139198105069627</v>
+        <v>0.0002039495086748128</v>
       </c>
       <c r="T18">
-        <v>0.02139198105069627</v>
+        <v>0.0002379291510716825</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.04350366666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.130511</v>
+      </c>
+      <c r="I19">
+        <v>0.001682954867502814</v>
+      </c>
+      <c r="J19">
+        <v>0.001782192679129202</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>11.1245335</v>
+      </c>
+      <c r="N19">
+        <v>22.249067</v>
+      </c>
+      <c r="O19">
+        <v>0.05255873837088854</v>
+      </c>
+      <c r="P19">
+        <v>0.03860081537640053</v>
+      </c>
+      <c r="Q19">
+        <v>0.4839579972061667</v>
+      </c>
+      <c r="R19">
+        <v>2.903747983237</v>
+      </c>
+      <c r="S19">
+        <v>8.845398457109382E-05</v>
+      </c>
+      <c r="T19">
+        <v>6.879409057223895E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.2531386666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.759416</v>
+      </c>
+      <c r="I20">
+        <v>0.009792759642172055</v>
+      </c>
+      <c r="J20">
+        <v>0.01037020355076263</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>47.464142</v>
+      </c>
+      <c r="N20">
+        <v>94.928284</v>
+      </c>
+      <c r="O20">
+        <v>0.2242480928640021</v>
+      </c>
+      <c r="P20">
+        <v>0.1646949584305048</v>
+      </c>
+      <c r="Q20">
+        <v>12.01500962035733</v>
+      </c>
+      <c r="R20">
+        <v>72.090057722144</v>
+      </c>
+      <c r="S20">
+        <v>0.002196007673632651</v>
+      </c>
+      <c r="T20">
+        <v>0.001707920242708725</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.2531386666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.759416</v>
+      </c>
+      <c r="I21">
+        <v>0.009792759642172055</v>
+      </c>
+      <c r="J21">
+        <v>0.01037020355076263</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>69.97731266666666</v>
+      </c>
+      <c r="N21">
+        <v>209.931938</v>
+      </c>
+      <c r="O21">
+        <v>0.3306133482671609</v>
+      </c>
+      <c r="P21">
+        <v>0.3642194965005931</v>
+      </c>
+      <c r="Q21">
+        <v>17.71396362535645</v>
+      </c>
+      <c r="R21">
+        <v>159.425672628208</v>
+      </c>
+      <c r="S21">
+        <v>0.003237617054074027</v>
+      </c>
+      <c r="T21">
+        <v>0.003777030315867428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.2531386666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.759416</v>
+      </c>
+      <c r="I22">
+        <v>0.009792759642172055</v>
+      </c>
+      <c r="J22">
+        <v>0.01037020355076263</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>33.09063966666667</v>
+      </c>
+      <c r="N22">
+        <v>99.271919</v>
+      </c>
+      <c r="O22">
+        <v>0.1563393442759357</v>
+      </c>
+      <c r="P22">
+        <v>0.172230908261456</v>
+      </c>
+      <c r="Q22">
+        <v>8.376520404367112</v>
+      </c>
+      <c r="R22">
+        <v>75.38868363930399</v>
+      </c>
+      <c r="S22">
+        <v>0.001530993621109026</v>
+      </c>
+      <c r="T22">
+        <v>0.001786069576404024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.2531386666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.759416</v>
+      </c>
+      <c r="I23">
+        <v>0.009792759642172055</v>
+      </c>
+      <c r="J23">
+        <v>0.01037020355076263</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>24.35245633333333</v>
+      </c>
+      <c r="N23">
+        <v>73.05736899999999</v>
+      </c>
+      <c r="O23">
+        <v>0.1150551060062118</v>
+      </c>
+      <c r="P23">
+        <v>0.126750214409196</v>
+      </c>
+      <c r="Q23">
+        <v>6.164548326278222</v>
+      </c>
+      <c r="R23">
+        <v>55.48093493650399</v>
+      </c>
+      <c r="S23">
+        <v>0.001126706998723458</v>
+      </c>
+      <c r="T23">
+        <v>0.001314425523526169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.2531386666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.759416</v>
+      </c>
+      <c r="I24">
+        <v>0.009792759642172055</v>
+      </c>
+      <c r="J24">
+        <v>0.01037020355076263</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>25.64998233333334</v>
+      </c>
+      <c r="N24">
+        <v>76.94994700000001</v>
+      </c>
+      <c r="O24">
+        <v>0.121185370215801</v>
+      </c>
+      <c r="P24">
+        <v>0.1335036070218497</v>
+      </c>
+      <c r="Q24">
+        <v>6.493002327883556</v>
+      </c>
+      <c r="R24">
+        <v>58.437020950952</v>
+      </c>
+      <c r="S24">
+        <v>0.001186739202670975</v>
+      </c>
+      <c r="T24">
+        <v>0.001384459579577605</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.2531386666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.759416</v>
+      </c>
+      <c r="I25">
+        <v>0.009792759642172055</v>
+      </c>
+      <c r="J25">
+        <v>0.01037020355076263</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>11.1245335</v>
+      </c>
+      <c r="N25">
+        <v>22.249067</v>
+      </c>
+      <c r="O25">
+        <v>0.05255873837088854</v>
+      </c>
+      <c r="P25">
+        <v>0.03860081537640053</v>
+      </c>
+      <c r="Q25">
+        <v>2.816049577478667</v>
+      </c>
+      <c r="R25">
+        <v>16.896297464872</v>
+      </c>
+      <c r="S25">
+        <v>0.0005146950919619172</v>
+      </c>
+      <c r="T25">
+        <v>0.0004002983126786815</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1263413333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.379024</v>
+      </c>
+      <c r="I26">
+        <v>0.00488755955973356</v>
+      </c>
+      <c r="J26">
+        <v>0.005175761414855963</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>47.464142</v>
+      </c>
+      <c r="N26">
+        <v>94.928284</v>
+      </c>
+      <c r="O26">
+        <v>0.2242480928640021</v>
+      </c>
+      <c r="P26">
+        <v>0.1646949584305048</v>
+      </c>
+      <c r="Q26">
+        <v>5.996682985802667</v>
+      </c>
+      <c r="R26">
+        <v>35.98009791481601</v>
+      </c>
+      <c r="S26">
+        <v>0.001096025910029473</v>
+      </c>
+      <c r="T26">
+        <v>0.0008524218110659136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.1263413333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.379024</v>
+      </c>
+      <c r="I27">
+        <v>0.00488755955973356</v>
+      </c>
+      <c r="J27">
+        <v>0.005175761414855963</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>69.97731266666666</v>
+      </c>
+      <c r="N27">
+        <v>209.931938</v>
+      </c>
+      <c r="O27">
+        <v>0.3306133482671609</v>
+      </c>
+      <c r="P27">
+        <v>0.3642194965005931</v>
+      </c>
+      <c r="Q27">
+        <v>8.841026985390222</v>
+      </c>
+      <c r="R27">
+        <v>79.56924286851201</v>
+      </c>
+      <c r="S27">
+        <v>0.001615892430898683</v>
+      </c>
+      <c r="T27">
+        <v>0.001885113216526036</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>4.07278262595734</v>
-      </c>
-      <c r="H19">
-        <v>4.07278262595734</v>
-      </c>
-      <c r="I19">
-        <v>0.176924073488286</v>
-      </c>
-      <c r="J19">
-        <v>0.176924073488286</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>11.0721234786409</v>
-      </c>
-      <c r="N19">
-        <v>11.0721234786409</v>
-      </c>
-      <c r="O19">
-        <v>0.05423561000844764</v>
-      </c>
-      <c r="P19">
-        <v>0.05423561000844764</v>
-      </c>
-      <c r="Q19">
-        <v>45.09435213626301</v>
-      </c>
-      <c r="R19">
-        <v>45.09435213626301</v>
-      </c>
-      <c r="S19">
-        <v>0.009595585050816612</v>
-      </c>
-      <c r="T19">
-        <v>0.009595585050816612</v>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.1263413333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.379024</v>
+      </c>
+      <c r="I28">
+        <v>0.00488755955973356</v>
+      </c>
+      <c r="J28">
+        <v>0.005175761414855963</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>33.09063966666667</v>
+      </c>
+      <c r="N28">
+        <v>99.271919</v>
+      </c>
+      <c r="O28">
+        <v>0.1563393442759357</v>
+      </c>
+      <c r="P28">
+        <v>0.172230908261456</v>
+      </c>
+      <c r="Q28">
+        <v>4.180715536339556</v>
+      </c>
+      <c r="R28">
+        <v>37.626439827056</v>
+      </c>
+      <c r="S28">
+        <v>0.0007641178566783257</v>
+      </c>
+      <c r="T28">
+        <v>0.0008914260894252408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.1263413333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.379024</v>
+      </c>
+      <c r="I29">
+        <v>0.00488755955973356</v>
+      </c>
+      <c r="J29">
+        <v>0.005175761414855963</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>24.35245633333333</v>
+      </c>
+      <c r="N29">
+        <v>73.05736899999999</v>
+      </c>
+      <c r="O29">
+        <v>0.1150551060062118</v>
+      </c>
+      <c r="P29">
+        <v>0.126750214409196</v>
+      </c>
+      <c r="Q29">
+        <v>3.076721803095111</v>
+      </c>
+      <c r="R29">
+        <v>27.690496227856</v>
+      </c>
+      <c r="S29">
+        <v>0.0005623386832568185</v>
+      </c>
+      <c r="T29">
+        <v>0.0006560288690638369</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.1263413333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.379024</v>
+      </c>
+      <c r="I30">
+        <v>0.00488755955973356</v>
+      </c>
+      <c r="J30">
+        <v>0.005175761414855963</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>25.64998233333334</v>
+      </c>
+      <c r="N30">
+        <v>76.94994700000001</v>
+      </c>
+      <c r="O30">
+        <v>0.121185370215801</v>
+      </c>
+      <c r="P30">
+        <v>0.1335036070218497</v>
+      </c>
+      <c r="Q30">
+        <v>3.240652967969778</v>
+      </c>
+      <c r="R30">
+        <v>29.16587671172801</v>
+      </c>
+      <c r="S30">
+        <v>0.0005923007146980886</v>
+      </c>
+      <c r="T30">
+        <v>0.0006909828179677835</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.1263413333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.379024</v>
+      </c>
+      <c r="I31">
+        <v>0.00488755955973356</v>
+      </c>
+      <c r="J31">
+        <v>0.005175761414855963</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>11.1245335</v>
+      </c>
+      <c r="N31">
+        <v>22.249067</v>
+      </c>
+      <c r="O31">
+        <v>0.05255873837088854</v>
+      </c>
+      <c r="P31">
+        <v>0.03860081537640053</v>
+      </c>
+      <c r="Q31">
+        <v>1.405488395101333</v>
+      </c>
+      <c r="R31">
+        <v>8.432930370608</v>
+      </c>
+      <c r="S31">
+        <v>0.0002568839641721714</v>
+      </c>
+      <c r="T31">
+        <v>0.0001997886108071526</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>4.261317500000001</v>
+      </c>
+      <c r="H32">
+        <v>8.522635000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.1648505879642312</v>
+      </c>
+      <c r="J32">
+        <v>0.1163808238684119</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>47.464142</v>
+      </c>
+      <c r="N32">
+        <v>94.928284</v>
+      </c>
+      <c r="O32">
+        <v>0.2242480928640021</v>
+      </c>
+      <c r="P32">
+        <v>0.1646949584305048</v>
+      </c>
+      <c r="Q32">
+        <v>202.259778927085</v>
+      </c>
+      <c r="R32">
+        <v>809.0391157083401</v>
+      </c>
+      <c r="S32">
+        <v>0.03696742995848826</v>
+      </c>
+      <c r="T32">
+        <v>0.019167334949116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>4.261317500000001</v>
+      </c>
+      <c r="H33">
+        <v>8.522635000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.1648505879642312</v>
+      </c>
+      <c r="J33">
+        <v>0.1163808238684119</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>69.97731266666666</v>
+      </c>
+      <c r="N33">
+        <v>209.931938</v>
+      </c>
+      <c r="O33">
+        <v>0.3306133482671609</v>
+      </c>
+      <c r="P33">
+        <v>0.3642194965005931</v>
+      </c>
+      <c r="Q33">
+        <v>298.1955470694384</v>
+      </c>
+      <c r="R33">
+        <v>1789.17328241663</v>
+      </c>
+      <c r="S33">
+        <v>0.0545018048506646</v>
+      </c>
+      <c r="T33">
+        <v>0.04238816507167719</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>4.261317500000001</v>
+      </c>
+      <c r="H34">
+        <v>8.522635000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.1648505879642312</v>
+      </c>
+      <c r="J34">
+        <v>0.1163808238684119</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>33.09063966666667</v>
+      </c>
+      <c r="N34">
+        <v>99.271919</v>
+      </c>
+      <c r="O34">
+        <v>0.1563393442759357</v>
+      </c>
+      <c r="P34">
+        <v>0.172230908261456</v>
+      </c>
+      <c r="Q34">
+        <v>141.0097218977609</v>
+      </c>
+      <c r="R34">
+        <v>846.0583313865651</v>
+      </c>
+      <c r="S34">
+        <v>0.02577263282583036</v>
+      </c>
+      <c r="T34">
+        <v>0.02004437499907312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>4.261317500000001</v>
+      </c>
+      <c r="H35">
+        <v>8.522635000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.1648505879642312</v>
+      </c>
+      <c r="J35">
+        <v>0.1163808238684119</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>24.35245633333333</v>
+      </c>
+      <c r="N35">
+        <v>73.05736899999999</v>
+      </c>
+      <c r="O35">
+        <v>0.1150551060062118</v>
+      </c>
+      <c r="P35">
+        <v>0.126750214409196</v>
+      </c>
+      <c r="Q35">
+        <v>103.7735483412192</v>
+      </c>
+      <c r="R35">
+        <v>622.641290047315</v>
+      </c>
+      <c r="S35">
+        <v>0.01896690187341096</v>
+      </c>
+      <c r="T35">
+        <v>0.01475129437844008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>4.261317500000001</v>
+      </c>
+      <c r="H36">
+        <v>8.522635000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.1648505879642312</v>
+      </c>
+      <c r="J36">
+        <v>0.1163808238684119</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>25.64998233333334</v>
+      </c>
+      <c r="N36">
+        <v>76.94994700000001</v>
+      </c>
+      <c r="O36">
+        <v>0.121185370215801</v>
+      </c>
+      <c r="P36">
+        <v>0.1335036070218497</v>
+      </c>
+      <c r="Q36">
+        <v>109.3027185917242</v>
+      </c>
+      <c r="R36">
+        <v>655.8163115503452</v>
+      </c>
+      <c r="S36">
+        <v>0.01997747953273782</v>
+      </c>
+      <c r="T36">
+        <v>0.01553725977460757</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>4.261317500000001</v>
+      </c>
+      <c r="H37">
+        <v>8.522635000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.1648505879642312</v>
+      </c>
+      <c r="J37">
+        <v>0.1163808238684119</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>11.1245335</v>
+      </c>
+      <c r="N37">
+        <v>22.249067</v>
+      </c>
+      <c r="O37">
+        <v>0.05255873837088854</v>
+      </c>
+      <c r="P37">
+        <v>0.03860081537640053</v>
+      </c>
+      <c r="Q37">
+        <v>47.40516928288626</v>
+      </c>
+      <c r="R37">
+        <v>189.620677131545</v>
+      </c>
+      <c r="S37">
+        <v>0.008664338923099174</v>
+      </c>
+      <c r="T37">
+        <v>0.004492394695497955</v>
       </c>
     </row>
   </sheetData>
